--- a/実験/第１回ロードバランサ比較実験.xlsx
+++ b/実験/第１回ロードバランサ比較実験.xlsx
@@ -186,16 +186,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -305,7 +305,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>サーバは</a:t>
+            <a:t>サーバ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -693,173 +693,173 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>0.625</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>0.34300000000000003</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>0.75</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.38700000000000001</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>0.64583333333333337</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>0.35399999999999998</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>0.77083333333333404</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>0.27900000000000003</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>4.1559999999999997</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>0.79166666666666696</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.34899999999999998</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>0.6875</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>0.8125</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="2">
         <v>0.36399999999999999</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>0.70833333333333304</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>0.20799999999999999</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>0.83333333333333404</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>0.28499999999999998</v>
       </c>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>3.2469999999999999</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>0.85416666666666696</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>4.2169999999999996</v>
       </c>
-      <c r="H10" s="4" t="s">
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
